--- a/ExportTemplate/FormRequestCreateAndUpdateDebtor.xlsx
+++ b/ExportTemplate/FormRequestCreateAndUpdateDebtor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\eContractPenalty\ExportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509384CE-CB2F-4155-B179-BA55388FC206}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D493BB-7D94-43D8-A1D6-50E192A0E6C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,9 +599,6 @@
     <t xml:space="preserve">             </t>
   </si>
   <si>
-    <t xml:space="preserve"> (นายคณพศ เฟื่องฟุ้ง)</t>
-  </si>
-  <si>
     <t>ผู้อำนวยการกองกฎหมาย</t>
   </si>
   <si>
@@ -657,6 +654,9 @@
   </si>
   <si>
     <t>วันที่        : __________________________</t>
+  </si>
+  <si>
+    <t>(นายอวยชัย อิสรวิริยะสกุล)</t>
   </si>
 </sst>
 </file>
@@ -1809,13 +1809,191 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1827,307 +2005,129 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2966,21 +2966,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="168"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
       <c r="N1" s="42"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1">
@@ -3002,21 +3002,21 @@
       <c r="N2" s="42"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="171"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
       <c r="N3" s="42"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1">
@@ -3040,64 +3040,64 @@
       <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="155"/>
-      <c r="M5" s="156"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="99"/>
       <c r="N5" s="42"/>
     </row>
     <row r="6" spans="1:14" ht="16.149999999999999" customHeight="1">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="173" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="117"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="181" t="s">
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
       <c r="M6" s="25"/>
       <c r="N6" s="42"/>
     </row>
     <row r="7" spans="1:14" ht="16.149999999999999" customHeight="1">
-      <c r="A7" s="178" t="s">
+      <c r="A7" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="174" t="s">
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="115"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="181" t="s">
+      <c r="F7" s="88"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
       <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:14" ht="16.149999999999999" customHeight="1">
@@ -3118,180 +3118,180 @@
       <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="155"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="155" t="s">
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="155"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="155"/>
-      <c r="L9" s="155"/>
-      <c r="M9" s="156"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="99"/>
     </row>
     <row r="10" spans="1:14" ht="16.149999999999999" customHeight="1">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="117" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="118"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="85"/>
       <c r="N10" s="42"/>
     </row>
     <row r="11" spans="1:14" ht="16.149999999999999" customHeight="1">
-      <c r="A11" s="127" t="s">
+      <c r="A11" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="117" t="s">
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="118"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="85"/>
       <c r="N11" s="42"/>
     </row>
     <row r="12" spans="1:14" ht="16.149999999999999" customHeight="1">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="117" t="s">
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="118"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="85"/>
       <c r="N12" s="42"/>
     </row>
     <row r="13" spans="1:14" ht="16.149999999999999" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="117" t="s">
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="118"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="85"/>
       <c r="N13" s="42"/>
     </row>
     <row r="14" spans="1:14" ht="16.149999999999999" customHeight="1">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="117" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="118"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="85"/>
       <c r="N14" s="42"/>
     </row>
     <row r="15" spans="1:14" ht="16.149999999999999" customHeight="1">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="117" t="s">
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="118"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="85"/>
       <c r="N15" s="42"/>
     </row>
     <row r="16" spans="1:14" ht="16.149999999999999" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="137" t="s">
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="165"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="117"/>
       <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1">
-      <c r="A17" s="143" t="s">
+      <c r="A17" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="145"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="131"/>
       <c r="N17" s="42"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1">
@@ -3315,343 +3315,343 @@
       <c r="N18" s="42"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1">
-      <c r="A19" s="129" t="s">
+      <c r="A19" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="130"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="131"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="159"/>
       <c r="N19" s="42"/>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="85"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="109"/>
       <c r="N20" s="42"/>
     </row>
     <row r="21" spans="1:14" s="45" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="163" t="s">
+      <c r="A21" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="146"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="147"/>
-      <c r="M21" s="148"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="137"/>
       <c r="N21" s="44"/>
     </row>
     <row r="22" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="164"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="78"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="139"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="140"/>
       <c r="N22" s="44"/>
     </row>
     <row r="23" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="125" t="s">
+      <c r="B23" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="126"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="133"/>
       <c r="N23" s="44"/>
     </row>
     <row r="24" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="82"/>
-      <c r="B24" s="115" t="s">
+      <c r="A24" s="98"/>
+      <c r="B24" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="116"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="134"/>
       <c r="N24" s="44"/>
     </row>
     <row r="25" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="125" t="s">
+      <c r="B25" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="126"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="133"/>
       <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="82"/>
-      <c r="B26" s="115" t="s">
+      <c r="A26" s="98"/>
+      <c r="B26" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="115"/>
-      <c r="M26" s="116"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="134"/>
       <c r="N26" s="44"/>
     </row>
     <row r="27" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="125" t="s">
+      <c r="B27" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="126"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="133"/>
       <c r="N27" s="44"/>
     </row>
     <row r="28" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="82"/>
-      <c r="B28" s="115" t="s">
+      <c r="A28" s="98"/>
+      <c r="B28" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="116"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="134"/>
       <c r="N28" s="44"/>
     </row>
     <row r="29" spans="1:14" s="45" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="75"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="171"/>
+      <c r="L29" s="171"/>
+      <c r="M29" s="172"/>
       <c r="N29" s="44"/>
     </row>
     <row r="30" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="82"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="78"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="140"/>
       <c r="N30" s="44"/>
     </row>
     <row r="31" spans="1:14" s="45" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="73"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="75"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="171"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="171"/>
+      <c r="K31" s="171"/>
+      <c r="L31" s="171"/>
+      <c r="M31" s="172"/>
       <c r="N31" s="44"/>
     </row>
     <row r="32" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="82"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="78"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="139"/>
+      <c r="M32" s="140"/>
       <c r="N32" s="44"/>
     </row>
     <row r="33" spans="1:14" s="45" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="75"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="171"/>
+      <c r="K33" s="171"/>
+      <c r="L33" s="171"/>
+      <c r="M33" s="172"/>
       <c r="N33" s="44"/>
     </row>
     <row r="34" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="82"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="78"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="139"/>
+      <c r="J34" s="139"/>
+      <c r="K34" s="139"/>
+      <c r="L34" s="139"/>
+      <c r="M34" s="140"/>
       <c r="N34" s="44"/>
     </row>
     <row r="35" spans="1:14" s="45" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="109" t="s">
+      <c r="A35" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="73"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="75"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="171"/>
+      <c r="D35" s="171"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="171"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="171"/>
+      <c r="K35" s="171"/>
+      <c r="L35" s="171"/>
+      <c r="M35" s="172"/>
       <c r="N35" s="44"/>
     </row>
     <row r="36" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="110"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="78"/>
+      <c r="A36" s="152"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="139"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="139"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="139"/>
+      <c r="K36" s="139"/>
+      <c r="L36" s="139"/>
+      <c r="M36" s="140"/>
       <c r="N36" s="44"/>
     </row>
     <row r="37" spans="1:14" s="45" customFormat="1" ht="30" customHeight="1">
       <c r="A37" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
+      <c r="B37" s="182"/>
+      <c r="C37" s="183"/>
+      <c r="D37" s="183"/>
+      <c r="E37" s="183"/>
+      <c r="F37" s="183"/>
       <c r="G37" s="19"/>
       <c r="H37" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="182"/>
-      <c r="J37" s="182"/>
-      <c r="K37" s="182"/>
-      <c r="L37" s="182"/>
-      <c r="M37" s="183"/>
+      <c r="I37" s="184"/>
+      <c r="J37" s="184"/>
+      <c r="K37" s="184"/>
+      <c r="L37" s="184"/>
+      <c r="M37" s="185"/>
       <c r="N37" s="44"/>
     </row>
     <row r="38" spans="1:14" s="45" customFormat="1" ht="30" customHeight="1">
@@ -3679,191 +3679,191 @@
       <c r="N38" s="44"/>
     </row>
     <row r="39" spans="1:14" s="45" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="109" t="s">
+      <c r="A39" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="73"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="75"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="171"/>
+      <c r="D39" s="171"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="171"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="171"/>
+      <c r="K39" s="171"/>
+      <c r="L39" s="171"/>
+      <c r="M39" s="172"/>
       <c r="N39" s="44"/>
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="110"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="78"/>
+      <c r="A40" s="152"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="139"/>
+      <c r="G40" s="139"/>
+      <c r="H40" s="139"/>
+      <c r="I40" s="139"/>
+      <c r="J40" s="139"/>
+      <c r="K40" s="139"/>
+      <c r="L40" s="139"/>
+      <c r="M40" s="140"/>
       <c r="N40" s="44"/>
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="30" customHeight="1">
       <c r="A41" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="119" t="s">
+      <c r="B41" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="119"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="119"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="119"/>
-      <c r="M41" s="120"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="147"/>
+      <c r="K41" s="147"/>
+      <c r="L41" s="147"/>
+      <c r="M41" s="148"/>
       <c r="N41" s="44"/>
     </row>
     <row r="42" spans="1:14" s="45" customFormat="1" ht="30" customHeight="1">
       <c r="A42" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="107" t="s">
+      <c r="B42" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
-      <c r="L42" s="107"/>
-      <c r="M42" s="108"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="145"/>
+      <c r="L42" s="145"/>
+      <c r="M42" s="146"/>
       <c r="N42" s="44"/>
     </row>
     <row r="43" spans="1:14" ht="18" customHeight="1">
-      <c r="A43" s="83" t="s">
+      <c r="A43" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="84"/>
-      <c r="M43" s="85"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="108"/>
+      <c r="L43" s="108"/>
+      <c r="M43" s="109"/>
       <c r="N43" s="42"/>
     </row>
     <row r="44" spans="1:14" ht="18" customHeight="1">
-      <c r="A44" s="132" t="s">
+      <c r="A44" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="133"/>
-      <c r="C44" s="133"/>
-      <c r="D44" s="133"/>
-      <c r="E44" s="133"/>
-      <c r="F44" s="134"/>
-      <c r="G44" s="184"/>
-      <c r="H44" s="184"/>
-      <c r="I44" s="184"/>
-      <c r="J44" s="184"/>
-      <c r="K44" s="184"/>
-      <c r="L44" s="184"/>
-      <c r="M44" s="185"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="142"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="142"/>
+      <c r="F44" s="143"/>
+      <c r="G44" s="149"/>
+      <c r="H44" s="149"/>
+      <c r="I44" s="149"/>
+      <c r="J44" s="149"/>
+      <c r="K44" s="149"/>
+      <c r="L44" s="149"/>
+      <c r="M44" s="150"/>
       <c r="N44" s="42"/>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1">
-      <c r="A45" s="135" t="s">
+      <c r="A45" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="117"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="128"/>
-      <c r="G45" s="119" t="s">
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119"/>
-      <c r="J45" s="119"/>
-      <c r="K45" s="119"/>
-      <c r="L45" s="119"/>
-      <c r="M45" s="120"/>
+      <c r="H45" s="147"/>
+      <c r="I45" s="147"/>
+      <c r="J45" s="147"/>
+      <c r="K45" s="147"/>
+      <c r="L45" s="147"/>
+      <c r="M45" s="148"/>
       <c r="N45" s="42"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1">
-      <c r="A46" s="135" t="s">
+      <c r="A46" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="117"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="119" t="s">
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="119"/>
-      <c r="I46" s="119"/>
-      <c r="J46" s="119"/>
-      <c r="K46" s="119"/>
-      <c r="L46" s="119"/>
-      <c r="M46" s="120"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="147"/>
+      <c r="J46" s="147"/>
+      <c r="K46" s="147"/>
+      <c r="L46" s="147"/>
+      <c r="M46" s="148"/>
       <c r="N46" s="42"/>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1">
-      <c r="A47" s="136" t="s">
+      <c r="A47" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="137"/>
-      <c r="C47" s="137"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="107" t="s">
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
-      <c r="L47" s="107"/>
-      <c r="M47" s="108"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="145"/>
+      <c r="J47" s="145"/>
+      <c r="K47" s="145"/>
+      <c r="L47" s="145"/>
+      <c r="M47" s="146"/>
       <c r="N47" s="42"/>
     </row>
     <row r="48" spans="1:14" ht="18" customHeight="1">
-      <c r="A48" s="166" t="s">
+      <c r="A48" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
-      <c r="E48" s="167"/>
-      <c r="F48" s="167"/>
-      <c r="G48" s="167"/>
-      <c r="H48" s="167"/>
-      <c r="I48" s="167"/>
-      <c r="J48" s="167"/>
-      <c r="K48" s="167"/>
-      <c r="L48" s="167"/>
-      <c r="M48" s="168"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="75"/>
       <c r="N48" s="42"/>
     </row>
     <row r="49" spans="1:14" ht="18" customHeight="1">
@@ -3885,228 +3885,228 @@
       <c r="N49" s="42"/>
     </row>
     <row r="50" spans="1:14" ht="18" customHeight="1">
-      <c r="A50" s="129" t="s">
+      <c r="A50" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="130"/>
-      <c r="C50" s="130"/>
-      <c r="D50" s="130"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="130"/>
-      <c r="I50" s="130"/>
-      <c r="J50" s="130"/>
-      <c r="K50" s="130"/>
-      <c r="L50" s="130"/>
-      <c r="M50" s="131"/>
+      <c r="B50" s="158"/>
+      <c r="C50" s="158"/>
+      <c r="D50" s="158"/>
+      <c r="E50" s="158"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="158"/>
+      <c r="H50" s="158"/>
+      <c r="I50" s="158"/>
+      <c r="J50" s="158"/>
+      <c r="K50" s="158"/>
+      <c r="L50" s="158"/>
+      <c r="M50" s="159"/>
       <c r="N50" s="42"/>
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1">
-      <c r="A51" s="102" t="s">
+      <c r="A51" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="103"/>
-      <c r="K51" s="103"/>
-      <c r="L51" s="103"/>
-      <c r="M51" s="104"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="111"/>
+      <c r="L51" s="111"/>
+      <c r="M51" s="112"/>
       <c r="N51" s="42"/>
     </row>
     <row r="52" spans="1:14" ht="18" customHeight="1">
-      <c r="A52" s="94" t="s">
+      <c r="A52" s="178" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="92"/>
-      <c r="C52" s="92" t="s">
+      <c r="B52" s="160"/>
+      <c r="C52" s="160" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="92" t="s">
+      <c r="D52" s="160"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="92"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="92"/>
-      <c r="K52" s="92"/>
-      <c r="L52" s="92"/>
-      <c r="M52" s="97"/>
+      <c r="H52" s="160"/>
+      <c r="I52" s="160"/>
+      <c r="J52" s="160"/>
+      <c r="K52" s="160"/>
+      <c r="L52" s="160"/>
+      <c r="M52" s="161"/>
       <c r="N52" s="42"/>
     </row>
     <row r="53" spans="1:14" ht="18" customHeight="1">
-      <c r="A53" s="95"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="96"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="96"/>
-      <c r="I53" s="96"/>
-      <c r="J53" s="96"/>
-      <c r="K53" s="96"/>
-      <c r="L53" s="96"/>
-      <c r="M53" s="98"/>
+      <c r="A53" s="179"/>
+      <c r="B53" s="162"/>
+      <c r="C53" s="162"/>
+      <c r="D53" s="162"/>
+      <c r="E53" s="162"/>
+      <c r="F53" s="165"/>
+      <c r="G53" s="162"/>
+      <c r="H53" s="162"/>
+      <c r="I53" s="162"/>
+      <c r="J53" s="162"/>
+      <c r="K53" s="162"/>
+      <c r="L53" s="162"/>
+      <c r="M53" s="163"/>
       <c r="N53" s="42"/>
     </row>
     <row r="54" spans="1:14" ht="18" customHeight="1">
-      <c r="A54" s="94" t="s">
+      <c r="A54" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="92"/>
-      <c r="C54" s="92" t="s">
+      <c r="B54" s="160"/>
+      <c r="C54" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="111"/>
-      <c r="G54" s="92" t="s">
+      <c r="D54" s="166"/>
+      <c r="E54" s="166"/>
+      <c r="F54" s="167"/>
+      <c r="G54" s="160" t="s">
         <v>65</v>
       </c>
-      <c r="H54" s="92"/>
-      <c r="I54" s="92" t="s">
+      <c r="H54" s="160"/>
+      <c r="I54" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="J54" s="92"/>
-      <c r="K54" s="92"/>
-      <c r="L54" s="92"/>
-      <c r="M54" s="97"/>
+      <c r="J54" s="160"/>
+      <c r="K54" s="160"/>
+      <c r="L54" s="160"/>
+      <c r="M54" s="161"/>
       <c r="N54" s="42"/>
     </row>
     <row r="55" spans="1:14" ht="18" customHeight="1">
-      <c r="A55" s="95"/>
-      <c r="B55" s="96"/>
-      <c r="C55" s="112"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="112"/>
-      <c r="F55" s="113"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="96"/>
-      <c r="K55" s="96"/>
-      <c r="L55" s="96"/>
-      <c r="M55" s="98"/>
+      <c r="A55" s="179"/>
+      <c r="B55" s="162"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
+      <c r="E55" s="168"/>
+      <c r="F55" s="169"/>
+      <c r="G55" s="162"/>
+      <c r="H55" s="162"/>
+      <c r="I55" s="162"/>
+      <c r="J55" s="162"/>
+      <c r="K55" s="162"/>
+      <c r="L55" s="162"/>
+      <c r="M55" s="163"/>
       <c r="N55" s="42"/>
     </row>
     <row r="56" spans="1:14" ht="18" customHeight="1">
-      <c r="A56" s="86" t="s">
+      <c r="A56" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87" t="s">
+      <c r="B56" s="123"/>
+      <c r="C56" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="99"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="87"/>
-      <c r="M56" s="90"/>
+      <c r="D56" s="180"/>
+      <c r="E56" s="180"/>
+      <c r="F56" s="180"/>
+      <c r="G56" s="123"/>
+      <c r="H56" s="123"/>
+      <c r="I56" s="123"/>
+      <c r="J56" s="123"/>
+      <c r="K56" s="123"/>
+      <c r="L56" s="123"/>
+      <c r="M56" s="124"/>
       <c r="N56" s="42"/>
     </row>
     <row r="57" spans="1:14" ht="18" customHeight="1">
-      <c r="A57" s="88"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="89"/>
-      <c r="I57" s="89"/>
-      <c r="J57" s="89"/>
-      <c r="K57" s="89"/>
-      <c r="L57" s="89"/>
-      <c r="M57" s="91"/>
+      <c r="A57" s="175"/>
+      <c r="B57" s="176"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="176"/>
+      <c r="H57" s="176"/>
+      <c r="I57" s="176"/>
+      <c r="J57" s="176"/>
+      <c r="K57" s="176"/>
+      <c r="L57" s="176"/>
+      <c r="M57" s="177"/>
       <c r="N57" s="42"/>
     </row>
     <row r="58" spans="1:14" ht="18" customHeight="1">
-      <c r="A58" s="102" t="s">
+      <c r="A58" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="103"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
-      <c r="F58" s="103"/>
-      <c r="G58" s="103"/>
-      <c r="H58" s="103"/>
-      <c r="I58" s="103"/>
-      <c r="J58" s="103"/>
-      <c r="K58" s="103"/>
-      <c r="L58" s="103"/>
-      <c r="M58" s="104"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="111"/>
+      <c r="K58" s="111"/>
+      <c r="L58" s="111"/>
+      <c r="M58" s="112"/>
       <c r="N58" s="42"/>
     </row>
     <row r="59" spans="1:14" ht="18" customHeight="1">
-      <c r="A59" s="88" t="s">
+      <c r="A59" s="175" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="89"/>
+      <c r="B59" s="176"/>
       <c r="C59" s="33" t="s">
         <v>70</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="57"/>
-      <c r="G59" s="101" t="s">
+      <c r="G59" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="H59" s="89"/>
-      <c r="I59" s="89"/>
-      <c r="J59" s="89"/>
-      <c r="K59" s="89"/>
-      <c r="L59" s="89"/>
-      <c r="M59" s="91"/>
+      <c r="H59" s="176"/>
+      <c r="I59" s="176"/>
+      <c r="J59" s="176"/>
+      <c r="K59" s="176"/>
+      <c r="L59" s="176"/>
+      <c r="M59" s="177"/>
       <c r="N59" s="42"/>
     </row>
     <row r="60" spans="1:14" ht="18" customHeight="1">
-      <c r="A60" s="102" t="s">
+      <c r="A60" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="103"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="103"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="103"/>
-      <c r="I60" s="103"/>
-      <c r="J60" s="103"/>
-      <c r="K60" s="103"/>
-      <c r="L60" s="103"/>
-      <c r="M60" s="104"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="111"/>
+      <c r="F60" s="111"/>
+      <c r="G60" s="111"/>
+      <c r="H60" s="111"/>
+      <c r="I60" s="111"/>
+      <c r="J60" s="111"/>
+      <c r="K60" s="111"/>
+      <c r="L60" s="111"/>
+      <c r="M60" s="112"/>
     </row>
     <row r="61" spans="1:14" ht="18" customHeight="1">
-      <c r="A61" s="94" t="s">
+      <c r="A61" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="92"/>
+      <c r="B61" s="160"/>
       <c r="C61" s="22" t="s">
         <v>74</v>
       </c>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
       <c r="F61" s="23"/>
-      <c r="G61" s="92" t="s">
+      <c r="G61" s="160" t="s">
         <v>75</v>
       </c>
-      <c r="H61" s="93"/>
-      <c r="I61" s="93"/>
+      <c r="H61" s="166"/>
+      <c r="I61" s="166"/>
       <c r="J61" s="36" t="s">
         <v>76</v>
       </c>
@@ -4115,8 +4115,8 @@
       <c r="M61" s="50"/>
     </row>
     <row r="62" spans="1:14" ht="18" customHeight="1">
-      <c r="A62" s="95"/>
-      <c r="B62" s="96"/>
+      <c r="A62" s="179"/>
+      <c r="B62" s="162"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
@@ -4130,77 +4130,77 @@
       <c r="M62" s="55"/>
     </row>
     <row r="63" spans="1:14" ht="18" customHeight="1">
-      <c r="A63" s="86" t="s">
+      <c r="A63" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="87"/>
-      <c r="C63" s="87" t="s">
+      <c r="B63" s="123"/>
+      <c r="C63" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="D63" s="87"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="H63" s="87"/>
-      <c r="I63" s="87"/>
-      <c r="J63" s="87"/>
-      <c r="K63" s="87"/>
-      <c r="L63" s="87"/>
-      <c r="M63" s="90"/>
+      <c r="D63" s="123"/>
+      <c r="E63" s="123"/>
+      <c r="F63" s="123"/>
+      <c r="G63" s="123"/>
+      <c r="H63" s="123"/>
+      <c r="I63" s="123"/>
+      <c r="J63" s="123"/>
+      <c r="K63" s="123"/>
+      <c r="L63" s="123"/>
+      <c r="M63" s="124"/>
       <c r="N63" s="42"/>
     </row>
     <row r="64" spans="1:14" ht="18" customHeight="1">
-      <c r="A64" s="88"/>
-      <c r="B64" s="89"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89"/>
-      <c r="F64" s="89"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="89"/>
-      <c r="I64" s="89"/>
-      <c r="J64" s="89"/>
-      <c r="K64" s="89"/>
-      <c r="L64" s="89"/>
-      <c r="M64" s="91"/>
+      <c r="A64" s="175"/>
+      <c r="B64" s="176"/>
+      <c r="C64" s="176"/>
+      <c r="D64" s="176"/>
+      <c r="E64" s="176"/>
+      <c r="F64" s="176"/>
+      <c r="G64" s="176"/>
+      <c r="H64" s="176"/>
+      <c r="I64" s="176"/>
+      <c r="J64" s="176"/>
+      <c r="K64" s="176"/>
+      <c r="L64" s="176"/>
+      <c r="M64" s="177"/>
       <c r="N64" s="42"/>
     </row>
     <row r="65" spans="1:14" ht="18" customHeight="1">
-      <c r="A65" s="160" t="s">
+      <c r="A65" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="161"/>
-      <c r="C65" s="161"/>
-      <c r="D65" s="161"/>
-      <c r="E65" s="161"/>
-      <c r="F65" s="161"/>
-      <c r="G65" s="161"/>
-      <c r="H65" s="161"/>
-      <c r="I65" s="161"/>
-      <c r="J65" s="161"/>
-      <c r="K65" s="161"/>
-      <c r="L65" s="161"/>
-      <c r="M65" s="162"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="105"/>
+      <c r="E65" s="105"/>
+      <c r="F65" s="105"/>
+      <c r="G65" s="105"/>
+      <c r="H65" s="105"/>
+      <c r="I65" s="105"/>
+      <c r="J65" s="105"/>
+      <c r="K65" s="105"/>
+      <c r="L65" s="105"/>
+      <c r="M65" s="106"/>
       <c r="N65" s="42"/>
     </row>
     <row r="66" spans="1:14" ht="18" customHeight="1">
-      <c r="A66" s="121" t="s">
+      <c r="A66" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="B66" s="122"/>
-      <c r="C66" s="122"/>
-      <c r="D66" s="122"/>
-      <c r="E66" s="122"/>
-      <c r="F66" s="123"/>
-      <c r="G66" s="122" t="s">
+      <c r="B66" s="154"/>
+      <c r="C66" s="154"/>
+      <c r="D66" s="154"/>
+      <c r="E66" s="154"/>
+      <c r="F66" s="155"/>
+      <c r="G66" s="154" t="s">
         <v>81</v>
       </c>
-      <c r="H66" s="122"/>
-      <c r="I66" s="122"/>
-      <c r="J66" s="122"/>
-      <c r="K66" s="122"/>
-      <c r="L66" s="122"/>
-      <c r="M66" s="124"/>
+      <c r="H66" s="154"/>
+      <c r="I66" s="154"/>
+      <c r="J66" s="154"/>
+      <c r="K66" s="154"/>
+      <c r="L66" s="154"/>
+      <c r="M66" s="156"/>
       <c r="N66" s="42"/>
     </row>
     <row r="67" spans="1:14" ht="18" customHeight="1">
@@ -4246,56 +4246,56 @@
       <c r="A69" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="159"/>
-      <c r="C69" s="159"/>
-      <c r="D69" s="159"/>
+      <c r="B69" s="103"/>
+      <c r="C69" s="103"/>
+      <c r="D69" s="103"/>
       <c r="E69" s="26"/>
       <c r="F69" s="47"/>
       <c r="G69" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="H69" s="114" t="s">
-        <v>86</v>
-      </c>
-      <c r="I69" s="114"/>
-      <c r="J69" s="114"/>
+      <c r="H69" s="115" t="s">
+        <v>105</v>
+      </c>
+      <c r="I69" s="115"/>
+      <c r="J69" s="115"/>
       <c r="K69" s="26"/>
       <c r="L69" s="26"/>
       <c r="M69" s="29"/>
     </row>
     <row r="70" spans="1:14" ht="18" customHeight="1">
       <c r="A70" s="28"/>
-      <c r="B70" s="159"/>
-      <c r="C70" s="159"/>
-      <c r="D70" s="159"/>
+      <c r="B70" s="103"/>
+      <c r="C70" s="103"/>
+      <c r="D70" s="103"/>
       <c r="E70" s="26"/>
       <c r="F70" s="47"/>
       <c r="G70" s="26"/>
-      <c r="H70" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="I70" s="114"/>
-      <c r="J70" s="114"/>
+      <c r="H70" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="I70" s="115"/>
+      <c r="J70" s="115"/>
       <c r="K70" s="26"/>
       <c r="L70" s="26"/>
       <c r="M70" s="29"/>
     </row>
     <row r="71" spans="1:14" ht="18" customHeight="1">
       <c r="A71" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="26" t="s">
         <v>88</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>89</v>
       </c>
       <c r="C71" s="26"/>
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
       <c r="F71" s="47"/>
       <c r="G71" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H71" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I71" s="26"/>
       <c r="J71" s="26"/>
@@ -4305,10 +4305,10 @@
     </row>
     <row r="72" spans="1:14" ht="18" customHeight="1">
       <c r="A72" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" s="26"/>
       <c r="D72" s="26"/>
@@ -4324,10 +4324,10 @@
     </row>
     <row r="73" spans="1:14" ht="18" customHeight="1">
       <c r="A73" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="33" t="s">
         <v>92</v>
-      </c>
-      <c r="B73" s="33" t="s">
-        <v>93</v>
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
@@ -4343,78 +4343,78 @@
       <c r="N73" s="42"/>
     </row>
     <row r="74" spans="1:14" ht="18" customHeight="1">
-      <c r="A74" s="157" t="s">
+      <c r="A74" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="101"/>
+      <c r="C74" s="101"/>
+      <c r="D74" s="101"/>
+      <c r="E74" s="101"/>
+      <c r="F74" s="101"/>
+      <c r="G74" s="101"/>
+      <c r="H74" s="101"/>
+      <c r="I74" s="101"/>
+      <c r="J74" s="101"/>
+      <c r="K74" s="101"/>
+      <c r="L74" s="101"/>
+      <c r="M74" s="102"/>
+    </row>
+    <row r="75" spans="1:14" ht="18" customHeight="1">
+      <c r="A75" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="100"/>
-      <c r="C74" s="100"/>
-      <c r="D74" s="100"/>
-      <c r="E74" s="100"/>
-      <c r="F74" s="100"/>
-      <c r="G74" s="100"/>
-      <c r="H74" s="100"/>
-      <c r="I74" s="100"/>
-      <c r="J74" s="100"/>
-      <c r="K74" s="100"/>
-      <c r="L74" s="100"/>
-      <c r="M74" s="158"/>
-    </row>
-    <row r="75" spans="1:14" ht="18" customHeight="1">
-      <c r="A75" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="B75" s="103"/>
-      <c r="C75" s="103"/>
-      <c r="D75" s="103"/>
-      <c r="E75" s="103"/>
-      <c r="F75" s="103"/>
-      <c r="G75" s="103"/>
-      <c r="H75" s="103"/>
-      <c r="I75" s="103"/>
-      <c r="J75" s="103"/>
-      <c r="K75" s="103"/>
-      <c r="L75" s="103"/>
-      <c r="M75" s="104"/>
+      <c r="B75" s="111"/>
+      <c r="C75" s="111"/>
+      <c r="D75" s="111"/>
+      <c r="E75" s="111"/>
+      <c r="F75" s="111"/>
+      <c r="G75" s="111"/>
+      <c r="H75" s="111"/>
+      <c r="I75" s="111"/>
+      <c r="J75" s="111"/>
+      <c r="K75" s="111"/>
+      <c r="L75" s="111"/>
+      <c r="M75" s="112"/>
       <c r="N75" s="42"/>
     </row>
     <row r="76" spans="1:14" ht="18" customHeight="1">
       <c r="A76" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" s="26" t="s">
         <v>96</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>97</v>
       </c>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
       <c r="F76" s="27"/>
-      <c r="G76" s="87"/>
-      <c r="H76" s="87"/>
-      <c r="I76" s="87"/>
-      <c r="J76" s="87"/>
-      <c r="K76" s="87"/>
-      <c r="L76" s="87"/>
-      <c r="M76" s="90"/>
+      <c r="G76" s="123"/>
+      <c r="H76" s="123"/>
+      <c r="I76" s="123"/>
+      <c r="J76" s="123"/>
+      <c r="K76" s="123"/>
+      <c r="L76" s="123"/>
+      <c r="M76" s="124"/>
       <c r="N76" s="42"/>
     </row>
     <row r="77" spans="1:14" ht="18" customHeight="1">
-      <c r="A77" s="150" t="s">
+      <c r="A77" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="120"/>
+      <c r="C77" s="120"/>
+      <c r="D77" s="120"/>
+      <c r="E77" s="120"/>
+      <c r="F77" s="121"/>
+      <c r="G77" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="B77" s="151"/>
-      <c r="C77" s="151"/>
-      <c r="D77" s="151"/>
-      <c r="E77" s="151"/>
-      <c r="F77" s="152"/>
-      <c r="G77" s="151" t="s">
-        <v>99</v>
-      </c>
-      <c r="H77" s="151"/>
-      <c r="I77" s="151"/>
-      <c r="J77" s="151"/>
-      <c r="K77" s="151"/>
-      <c r="L77" s="151"/>
-      <c r="M77" s="153"/>
+      <c r="H77" s="120"/>
+      <c r="I77" s="120"/>
+      <c r="J77" s="120"/>
+      <c r="K77" s="120"/>
+      <c r="L77" s="120"/>
+      <c r="M77" s="122"/>
       <c r="N77" s="42"/>
     </row>
     <row r="78" spans="1:14" ht="18" customHeight="1">
@@ -4422,20 +4422,20 @@
         <v>82</v>
       </c>
       <c r="B78" s="63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" s="63"/>
       <c r="D78" s="63"/>
       <c r="E78" s="63"/>
       <c r="F78" s="64"/>
-      <c r="G78" s="149" t="s">
-        <v>101</v>
-      </c>
-      <c r="H78" s="149"/>
-      <c r="I78" s="149"/>
-      <c r="J78" s="149"/>
-      <c r="K78" s="149"/>
-      <c r="L78" s="149"/>
+      <c r="G78" s="118" t="s">
+        <v>100</v>
+      </c>
+      <c r="H78" s="118"/>
+      <c r="I78" s="118"/>
+      <c r="J78" s="118"/>
+      <c r="K78" s="118"/>
+      <c r="L78" s="118"/>
       <c r="M78" s="65"/>
       <c r="N78" s="42"/>
     </row>
@@ -4444,36 +4444,36 @@
         <v>85</v>
       </c>
       <c r="B79" s="63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79" s="63"/>
       <c r="D79" s="63"/>
       <c r="E79" s="63"/>
       <c r="F79" s="64"/>
-      <c r="G79" s="149" t="s">
-        <v>103</v>
-      </c>
-      <c r="H79" s="149"/>
-      <c r="I79" s="149"/>
-      <c r="J79" s="149"/>
-      <c r="K79" s="149"/>
-      <c r="L79" s="149"/>
+      <c r="G79" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="H79" s="118"/>
+      <c r="I79" s="118"/>
+      <c r="J79" s="118"/>
+      <c r="K79" s="118"/>
+      <c r="L79" s="118"/>
       <c r="M79" s="65"/>
       <c r="N79" s="42"/>
     </row>
     <row r="80" spans="1:14" ht="21.6" customHeight="1">
       <c r="A80" s="66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B80" s="67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C80" s="67"/>
       <c r="D80" s="67"/>
       <c r="E80" s="67"/>
       <c r="F80" s="68"/>
       <c r="G80" s="67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H80" s="67"/>
       <c r="I80" s="67"/>
@@ -4590,6 +4590,87 @@
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="B31:M32"/>
+    <mergeCell ref="B33:M34"/>
+    <mergeCell ref="B35:M36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A43:M43"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="C63:M64"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="I54:M55"/>
+    <mergeCell ref="A61:B62"/>
+    <mergeCell ref="C56:F57"/>
+    <mergeCell ref="G59:M59"/>
+    <mergeCell ref="A60:M60"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="G54:H55"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="G56:M57"/>
+    <mergeCell ref="C52:F53"/>
+    <mergeCell ref="G47:M47"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C54:F55"/>
+    <mergeCell ref="B39:M40"/>
+    <mergeCell ref="A51:M51"/>
+    <mergeCell ref="A50:M50"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="B41:M41"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:M66"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="G52:M53"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="B42:M42"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:M46"/>
+    <mergeCell ref="G44:M44"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="B21:M22"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B29:M30"/>
+    <mergeCell ref="A75:M75"/>
+    <mergeCell ref="G78:L78"/>
+    <mergeCell ref="G79:L79"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:M77"/>
+    <mergeCell ref="G76:M76"/>
+    <mergeCell ref="A74:M74"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="A65:M65"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A48:M48"/>
     <mergeCell ref="A3:M3"/>
@@ -4606,87 +4687,6 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A74:M74"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="A65:M65"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="A75:M75"/>
-    <mergeCell ref="G78:L78"/>
-    <mergeCell ref="G79:L79"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:M77"/>
-    <mergeCell ref="G76:M76"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="B21:M22"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="B42:M42"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:M46"/>
-    <mergeCell ref="G44:M44"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="B41:M41"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:M66"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="G52:M53"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="C52:F53"/>
-    <mergeCell ref="G47:M47"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C54:F55"/>
-    <mergeCell ref="B39:M40"/>
-    <mergeCell ref="A51:M51"/>
-    <mergeCell ref="A50:M50"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A43:M43"/>
-    <mergeCell ref="A63:B64"/>
-    <mergeCell ref="C63:M64"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="I54:M55"/>
-    <mergeCell ref="A61:B62"/>
-    <mergeCell ref="C56:F57"/>
-    <mergeCell ref="G59:M59"/>
-    <mergeCell ref="A60:M60"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="G54:H55"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="G56:M57"/>
-    <mergeCell ref="B29:M30"/>
-    <mergeCell ref="B31:M32"/>
-    <mergeCell ref="B33:M34"/>
-    <mergeCell ref="B35:M36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="I37:M37"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
